--- a/breeding_patterns - win, sum/litters (delivery times)/Seasonal_Births_ SM2 _ 3 yr.xlsx
+++ b/breeding_patterns - win, sum/litters (delivery times)/Seasonal_Births_ SM2 _ 3 yr.xlsx
@@ -407,7 +407,7 @@
         <v>54</v>
       </c>
       <c r="F2" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -427,7 +427,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +481,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +555,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -575,7 +575,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
